--- a/resources/Login.xlsx
+++ b/resources/Login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aUTOMATION sTUDY\Github\SeleniumMaven\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DFC4A7-CF90-4AFD-8B4E-274B1DCA292A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFC66DC-AF57-4D30-BA88-892B0040F135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,7 +364,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/resources/Login.xlsx
+++ b/resources/Login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aUTOMATION sTUDY\Github\SeleniumMaven\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFC66DC-AF57-4D30-BA88-892B0040F135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD3B3AF-7AB8-4318-971D-C1F34EF92535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Mohamed-Kamal9839@gmail.com</t>
   </si>
   <si>
     <t>mkamal9</t>
+  </si>
+  <si>
+    <t>Mohamed-Kamal983@gmail.com</t>
+  </si>
+  <si>
+    <t>Mohamed-Kamal@gmail.com</t>
+  </si>
+  <si>
+    <t>mkamal</t>
   </si>
 </sst>
 </file>
@@ -361,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -380,12 +389,48 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{BFCB35BD-7421-4899-AEE6-FDD3931FBB44}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{1A3C3ECC-6458-4C87-80C7-E193E8C7904D}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{C2CB0575-2AD6-48C1-B5DA-DE4EADC2A24B}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{D6908E00-A3CA-4138-B499-D104A04C6B2E}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{FEFFA10C-ACF3-4D51-9713-CC1EB91A14E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;7&amp;K000000C2 General</oddFooter>
   </headerFooter>
